--- a/output/fit_clients/fit_round_433.xlsx
+++ b/output/fit_clients/fit_round_433.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1583586911.327556</v>
+        <v>1712810233.507638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0947005142540719</v>
+        <v>0.07065848567149884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04229823447722093</v>
+        <v>0.04015132677319438</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>791793395.3302872</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2107812202.69633</v>
+        <v>2173532738.14074</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1615405222933044</v>
+        <v>0.1628128893146948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03041131946203139</v>
+        <v>0.03849606108610099</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1053906158.116472</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3473581958.989487</v>
+        <v>3828087784.963402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1170678655330371</v>
+        <v>0.1292387694007788</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02916899075348341</v>
+        <v>0.0357519202487112</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>156</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1736790956.393396</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2929144924.379294</v>
+        <v>3814458079.025172</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1056978577165102</v>
+        <v>0.06898364404424392</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04335269873249277</v>
+        <v>0.04935439222647776</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>160</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1464572536.752621</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2774353682.688185</v>
+        <v>2563708030.141721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1443215986437168</v>
+        <v>0.090017637971228</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04166326712150881</v>
+        <v>0.04189714467402644</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1387176787.153067</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2881839179.959367</v>
+        <v>2111744845.176851</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1019301408523084</v>
+        <v>0.06999876832215696</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04245340515627272</v>
+        <v>0.04210961355310789</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>136</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1440919566.321335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3117476710.05517</v>
+        <v>3011786320.671714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2209971920663838</v>
+        <v>0.1931853164846385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0209513001870819</v>
+        <v>0.02029193760573918</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>137</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1558738424.570558</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1942086593.038673</v>
+        <v>2043277048.699971</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1400842143853153</v>
+        <v>0.1804268216024837</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03207859150842955</v>
+        <v>0.0250170170594778</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>971043331.1849065</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4783500212.004031</v>
+        <v>5547938229.840873</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2001636809245623</v>
+        <v>0.1562886628714528</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05144499735002224</v>
+        <v>0.05066932991479512</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>182</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2391750188.545648</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2788389119.347466</v>
+        <v>3616853459.302554</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1378893550890061</v>
+        <v>0.1664230998069838</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0371621418275836</v>
+        <v>0.03448039998254571</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>179</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1394194487.853483</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2589463057.317278</v>
+        <v>2631282806.24992</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1433128057559795</v>
+        <v>0.1328266784467332</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05163480587514994</v>
+        <v>0.03462943185862739</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>148</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1294731509.096439</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5022768594.247271</v>
+        <v>4203241711.194437</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08251570784485729</v>
+        <v>0.1012614299364949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02920550350798517</v>
+        <v>0.02254313945556894</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>145</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2511384300.122761</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2645859208.724716</v>
+        <v>3795042855.607306</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1650425254067052</v>
+        <v>0.1182505476245033</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0402842779818675</v>
+        <v>0.03168144040295282</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1322929664.463943</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1752764028.380939</v>
+        <v>1315456579.632242</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08073039294994264</v>
+        <v>0.06884013350415109</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04417462952218508</v>
+        <v>0.03293216995846324</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>876382157.0132208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2373022042.697115</v>
+        <v>2170679756.629916</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09596986862631664</v>
+        <v>0.08669239803650144</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04124473140703409</v>
+        <v>0.05189525526601384</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1186511063.539679</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3202932151.678942</v>
+        <v>4245840019.136123</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1166653947255001</v>
+        <v>0.1069634207466794</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03908833803970125</v>
+        <v>0.03857009411794611</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>127</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1601466149.871337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2612921621.465523</v>
+        <v>3255446492.677344</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1119655280659347</v>
+        <v>0.177834759184122</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03390394314625541</v>
+        <v>0.03040863463928797</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>142</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1306460869.039797</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1116666484.09724</v>
+        <v>1208609952.87418</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1372144211126968</v>
+        <v>0.1522891284393515</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01823041246993002</v>
+        <v>0.02046258541053543</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>558333299.7360618</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2630265478.730649</v>
+        <v>1872780960.64306</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1317876621170126</v>
+        <v>0.09979047303911512</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02507257950522677</v>
+        <v>0.02962981094441407</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1315132698.594995</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2090495454.526656</v>
+        <v>2557204303.310448</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1002779054538863</v>
+        <v>0.06762313365826293</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04499173446372749</v>
+        <v>0.04438573404940068</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1045247754.576485</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2569800409.461707</v>
+        <v>3203022521.318208</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005923534270074</v>
+        <v>0.1239412895683027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03884087321451028</v>
+        <v>0.05234724924961192</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1284900292.041786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1169122036.321255</v>
+        <v>1272269641.146164</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1182571741197111</v>
+        <v>0.1399768131383225</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03669239332320267</v>
+        <v>0.04410054236186609</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>584561059.8635308</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3490241553.22265</v>
+        <v>4089569743.543452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1437845046378934</v>
+        <v>0.1136185099616242</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02893380937366929</v>
+        <v>0.02718404774462858</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1745120778.899007</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1282029004.038343</v>
+        <v>1360002288.32141</v>
       </c>
       <c r="F25" t="n">
-        <v>0.115174514359983</v>
+        <v>0.0854705319177388</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02974109857681658</v>
+        <v>0.0219163980373768</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>641014501.1294291</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968265597.7764876</v>
+        <v>1146976845.985723</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07772969288282526</v>
+        <v>0.08783405391438967</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0328841150433519</v>
+        <v>0.0345307749965152</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>484132763.2284612</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4608261217.872631</v>
+        <v>3164753314.828819</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1185212201281546</v>
+        <v>0.1222963254805391</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02021064378943783</v>
+        <v>0.02199088536134659</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2304130588.873526</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3597404373.841433</v>
+        <v>3559489255.279316</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1097545843706059</v>
+        <v>0.09393123473353727</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04270487613899137</v>
+        <v>0.0360922503678001</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>140</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1798702250.04908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5790367437.556796</v>
+        <v>5209401729.769245</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1112144203835267</v>
+        <v>0.1356458780619009</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03006009687228081</v>
+        <v>0.03282050589992808</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>191</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2895183611.645514</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2097874838.773088</v>
+        <v>2343263248.038631</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1309348323031361</v>
+        <v>0.1327074288151573</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03292720233646098</v>
+        <v>0.02789993552408274</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1048937468.010784</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1313300201.781205</v>
+        <v>1016437077.690125</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09230847680195375</v>
+        <v>0.06782800588232557</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04074108169621667</v>
+        <v>0.03643591796215331</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>656650025.7031956</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1450310789.845991</v>
+        <v>1393378702.823066</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07427840688998996</v>
+        <v>0.1102370191424357</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03161333610583356</v>
+        <v>0.02769082553384711</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>725155453.0111419</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2254084023.613606</v>
+        <v>1991305555.837152</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1539729940693918</v>
+        <v>0.1746049985848405</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03763007500843681</v>
+        <v>0.04653348203201438</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1127042070.977105</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1026451003.155033</v>
+        <v>967644138.5483922</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1074177285658332</v>
+        <v>0.1058368367476349</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02672439575689683</v>
+        <v>0.01879620399842568</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>513225535.0920569</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1263353331.327042</v>
+        <v>889737690.8447257</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1175634799298732</v>
+        <v>0.09308964046550014</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0304480525487165</v>
+        <v>0.03762820598077836</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>631676626.5056734</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2354647921.694338</v>
+        <v>2850142744.886022</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1319756267207987</v>
+        <v>0.127054100411882</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01969304042869478</v>
+        <v>0.022716752923203</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1177323994.504701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1817568654.387111</v>
+        <v>2024114852.255991</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08550408516871576</v>
+        <v>0.08070384002339752</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03652326316710167</v>
+        <v>0.03172643955067207</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>117</v>
-      </c>
-      <c r="J37" t="n">
-        <v>908784329.3930274</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1889810276.922616</v>
+        <v>1715779696.112195</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07839414046756865</v>
+        <v>0.1174465889213278</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03157073981789051</v>
+        <v>0.03251388637046385</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>944905132.6710216</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1456288864.123119</v>
+        <v>2218342572.758302</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1817121438279488</v>
+        <v>0.1404439738612577</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02657143451101054</v>
+        <v>0.03186985357324502</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>728144509.1824381</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1309885719.828285</v>
+        <v>1271137386.079075</v>
       </c>
       <c r="F40" t="n">
-        <v>0.152682828694221</v>
+        <v>0.1259503993556941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04563285234507858</v>
+        <v>0.04721494508556622</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>654942873.714664</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2336631525.404408</v>
+        <v>2100033547.382147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1283662759440601</v>
+        <v>0.1038741899166754</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04319299239790247</v>
+        <v>0.04579380272422131</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>108</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1168315803.992385</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2789140275.590542</v>
+        <v>3620406169.975996</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1059480492433713</v>
+        <v>0.08104869157124238</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03090264972311444</v>
+        <v>0.03591876059629963</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1394570083.743274</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1905787935.978719</v>
+        <v>2599349600.059536</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1556096514702121</v>
+        <v>0.1353330372917998</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02064261570498341</v>
+        <v>0.02570903497143025</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>952894076.4120733</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1613329946.278677</v>
+        <v>2065927939.720553</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09379364727504495</v>
+        <v>0.1020982798091394</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02670476087714795</v>
+        <v>0.03306935641008892</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>806665002.3392528</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1743912135.512125</v>
+        <v>2330034787.574661</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1746366188541473</v>
+        <v>0.1324355009193113</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04662902144833901</v>
+        <v>0.03722973306146694</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>871956032.8035086</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5494993431.589091</v>
+        <v>5093220443.532699</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1247103827041131</v>
+        <v>0.1387000885003318</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05715688333219046</v>
+        <v>0.05375403333782466</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>154</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2747496770.936909</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4805227797.122053</v>
+        <v>4286470624.473577</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1615944964403167</v>
+        <v>0.199411245193277</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04768390233832716</v>
+        <v>0.05779651047968458</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2402613943.330359</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4406016012.123503</v>
+        <v>4203861512.269967</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07224006937262631</v>
+        <v>0.0862505424061645</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0322255031136963</v>
+        <v>0.02953320883262072</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2203008016.851923</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1668169372.657902</v>
+        <v>1822493615.541435</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1362030860371818</v>
+        <v>0.1643151040635508</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03452453276247548</v>
+        <v>0.03843429232983029</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>834084692.2322898</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4208847262.439658</v>
+        <v>3816555729.174014</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1242185558160402</v>
+        <v>0.1568537470450501</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04031272922194745</v>
+        <v>0.03420154488560854</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>148</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2104423605.056011</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1120767661.429718</v>
+        <v>1484843768.793476</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1339899128495652</v>
+        <v>0.1518265401235064</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04856106418805676</v>
+        <v>0.03737268915449399</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>560383895.1258447</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3559548572.236875</v>
+        <v>4264541405.835258</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1288118619003062</v>
+        <v>0.1046813720068287</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0470957283936393</v>
+        <v>0.05715270665584755</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>178</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1779774368.538978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3111068465.390806</v>
+        <v>2989510084.96794</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1661045467882954</v>
+        <v>0.1666812547967303</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02527400833697682</v>
+        <v>0.0292695832278386</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>124</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1555534257.498417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3537069905.800805</v>
+        <v>3524894534.772187</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1502295844057925</v>
+        <v>0.1102855361895226</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04989829605463136</v>
+        <v>0.04448534972949608</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>141</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1768534980.648463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4497057499.962731</v>
+        <v>3963633341.759875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1479805142735497</v>
+        <v>0.1933242954113782</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02272888227025931</v>
+        <v>0.03098160401605856</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2248528746.823537</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1689664657.171053</v>
+        <v>1516445699.698101</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1509418152837928</v>
+        <v>0.1600740670974743</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0386048425880308</v>
+        <v>0.04622448046465963</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>844832342.7561207</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4053474685.591009</v>
+        <v>3685485172.443776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.129940374980329</v>
+        <v>0.1667570710929024</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02205282003371432</v>
+        <v>0.02078020229162375</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2026737435.669805</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1542544671.431606</v>
+        <v>1654303872.272944</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2020889723618295</v>
+        <v>0.1872505122627783</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02726477674222412</v>
+        <v>0.03081531796184476</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>771272362.9884288</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5141079388.094379</v>
+        <v>3596554502.204728</v>
       </c>
       <c r="F59" t="n">
-        <v>0.108007216205868</v>
+        <v>0.1017836477599317</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03385866887015052</v>
+        <v>0.03497007691545943</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2570539614.969179</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3394492357.509218</v>
+        <v>3694357883.782035</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2064797105265817</v>
+        <v>0.1561130530446441</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02046840771546257</v>
+        <v>0.02379632314355354</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1697246290.502117</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2342771288.668304</v>
+        <v>2914579723.073523</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1226811131129506</v>
+        <v>0.162109220696791</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02605983414673222</v>
+        <v>0.0226826953740957</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>148</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1171385686.800683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1475494144.324695</v>
+        <v>1597857428.796649</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1247931222644776</v>
+        <v>0.145623825377292</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03515484837812696</v>
+        <v>0.04145729865904162</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>737747051.5807482</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4824597439.316129</v>
+        <v>4833325940.044217</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09767333269731995</v>
+        <v>0.07686381120849659</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04071686984163853</v>
+        <v>0.04769927864658036</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2412298745.291585</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4045641720.405684</v>
+        <v>3767937381.729362</v>
       </c>
       <c r="F64" t="n">
-        <v>0.163217834862432</v>
+        <v>0.1685037226767086</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02399914607445399</v>
+        <v>0.03510390348432433</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>135</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2022820899.289723</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4839429891.646912</v>
+        <v>5639697325.422349</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1650930636050007</v>
+        <v>0.1651123989779029</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03099750270142944</v>
+        <v>0.02051276165323139</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>155</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2419714914.332253</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3665395250.614277</v>
+        <v>4357826862.553139</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1445851655036253</v>
+        <v>0.1429394137847915</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03797343705169689</v>
+        <v>0.04763660434301952</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1832697580.983049</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3302541585.023446</v>
+        <v>2526574684.67274</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08279387613373594</v>
+        <v>0.07096778258849777</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04146004855429351</v>
+        <v>0.03260708281555116</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>139</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1651270785.180483</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5849901512.560608</v>
+        <v>4893847143.860151</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1575595709366568</v>
+        <v>0.1477193782742923</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03665410916151362</v>
+        <v>0.04857971539867001</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2924950864.185809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1819290860.082227</v>
+        <v>2337653288.22334</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1114899261031505</v>
+        <v>0.1350164232056872</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05000033120507975</v>
+        <v>0.05485153421907448</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>909645411.6767718</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3236288021.663931</v>
+        <v>2295632436.718637</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1010284961159</v>
+        <v>0.0930285713388634</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03957814111116092</v>
+        <v>0.03688689535210157</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>124</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1618144003.290181</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4576364869.007792</v>
+        <v>4593545887.939728</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1396498474177818</v>
+        <v>0.1297891177041577</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02589135747062764</v>
+        <v>0.03136314488410834</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>158</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2288182508.576334</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1737150259.056457</v>
+        <v>1785363517.247586</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06794353388450071</v>
+        <v>0.1066806577423032</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04440972476284551</v>
+        <v>0.03894519800752008</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>868575118.3003542</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2694399297.497367</v>
+        <v>3263907587.035647</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06997945086538002</v>
+        <v>0.09432588691262796</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04724935857337805</v>
+        <v>0.04250936107419499</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>164</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1347199672.718654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3001006324.2398</v>
+        <v>2670542376.839418</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1838491735929003</v>
+        <v>0.1330892665278859</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03401145016039581</v>
+        <v>0.02720586978569288</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>148</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1500503227.418116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2113645304.004306</v>
+        <v>2435405142.912432</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1034960759429375</v>
+        <v>0.1676033044351281</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03592867648094345</v>
+        <v>0.03219613606965716</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1056822605.519256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4380187455.734718</v>
+        <v>3982109194.103679</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0934244542044399</v>
+        <v>0.1026700339024079</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02278792464236142</v>
+        <v>0.03392354055597111</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>108</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2190093728.544526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1420316661.497897</v>
+        <v>2112670710.075056</v>
       </c>
       <c r="F77" t="n">
-        <v>0.169073293283808</v>
+        <v>0.1587340996019061</v>
       </c>
       <c r="G77" t="n">
-        <v>0.028643997368035</v>
+        <v>0.02175784941540284</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>710158306.674747</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2980738045.305392</v>
+        <v>3920129327.859976</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1001092929428145</v>
+        <v>0.1276796665368846</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05271672059261544</v>
+        <v>0.04903997806223084</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>150</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1490369061.328862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1196363077.689223</v>
+        <v>1258715449.753277</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1315697816661319</v>
+        <v>0.129207079454946</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03570782983876784</v>
+        <v>0.02556001777361516</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>598181519.9263328</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4143400251.174583</v>
+        <v>4551926544.836739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1115827629718357</v>
+        <v>0.09535099288788694</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03530916823715325</v>
+        <v>0.02708028431569349</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2071700132.196833</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3888788760.133168</v>
+        <v>3563665409.77827</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1375118259722026</v>
+        <v>0.1051100885580774</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02022669372041322</v>
+        <v>0.02597006898812855</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1944394339.177564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5242565195.50114</v>
+        <v>5177221808.883163</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1497771141074849</v>
+        <v>0.181014062465313</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02138717028281441</v>
+        <v>0.02218628337822018</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>151</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2621282568.194217</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1533997856.768113</v>
+        <v>2132960139.234166</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1157244686334898</v>
+        <v>0.1325769340035672</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03085523887397694</v>
+        <v>0.03785700381806324</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>766998855.7151822</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2506497751.082243</v>
+        <v>1923039629.567545</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08658535702392195</v>
+        <v>0.08539994662723595</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04709680892411845</v>
+        <v>0.05032753857685222</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1253248806.398938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3142447776.094413</v>
+        <v>3221593031.452771</v>
       </c>
       <c r="F85" t="n">
-        <v>0.12750962099022</v>
+        <v>0.1669906689164358</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03820825658677635</v>
+        <v>0.04806151432596891</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>164</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1571223963.970706</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2607041895.089339</v>
+        <v>2211723627.027424</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1123506762420474</v>
+        <v>0.1202628634908538</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02316475857038236</v>
+        <v>0.02142439041081045</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1303521059.602402</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1093656024.186939</v>
+        <v>1279680983.64082</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1508699754449928</v>
+        <v>0.1708085403884437</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03057257802875332</v>
+        <v>0.03299327647625153</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>546828040.437137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2638206813.205149</v>
+        <v>3541940614.720057</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1573290203704573</v>
+        <v>0.1590175864306962</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03255056113454282</v>
+        <v>0.03980030226133285</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>171</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1319103401.301329</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3413746174.527752</v>
+        <v>3101106508.237677</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1500816591601833</v>
+        <v>0.1085917214980989</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02554577462077462</v>
+        <v>0.03593415211611201</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>145</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1706873095.049483</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1359221472.854976</v>
+        <v>1797063044.374372</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1128933963963837</v>
+        <v>0.09221093488728413</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05612619048983822</v>
+        <v>0.04120951301699249</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>679610689.3917189</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1790449769.63216</v>
+        <v>1959315572.880226</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1370912499382138</v>
+        <v>0.1801441422581026</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05025954936382294</v>
+        <v>0.04244452165053843</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>895224885.0361937</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2009676572.922831</v>
+        <v>2152013488.234003</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09358855257698931</v>
+        <v>0.09688861125465471</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03311646090353298</v>
+        <v>0.02954123452774531</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1004838233.376663</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3920437629.918919</v>
+        <v>3395393024.135857</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1060222815516688</v>
+        <v>0.1219787152458791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03827057872422761</v>
+        <v>0.05384937661876528</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1960218820.748912</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2257930574.181268</v>
+        <v>2140728408.843703</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1315436073785843</v>
+        <v>0.1153363130711117</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04140099447448745</v>
+        <v>0.03494176121712128</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1128965319.040833</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3079598991.676733</v>
+        <v>2419343944.671022</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1324997982679572</v>
+        <v>0.1150175744920678</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05128970008408379</v>
+        <v>0.05195082992851564</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1539799489.80287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1888023558.517243</v>
+        <v>2394384439.191078</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09285311050617773</v>
+        <v>0.08777957653196641</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03233308342619756</v>
+        <v>0.0366177720708931</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>944011778.2268518</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4894136928.708001</v>
+        <v>4490579289.577797</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1399210143644324</v>
+        <v>0.1283680661025575</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02088927028524857</v>
+        <v>0.02461091079318143</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>140</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2447068592.659589</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3880692859.942151</v>
+        <v>3764104372.746495</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08735980255433234</v>
+        <v>0.1185032966140695</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02295822938326484</v>
+        <v>0.02413031256836739</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>119</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1940346474.437254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2774078317.846721</v>
+        <v>2083447325.003981</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1003703444269956</v>
+        <v>0.1366851407453882</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03409066238878761</v>
+        <v>0.03390802219134423</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>136</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1387039128.507548</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3460844471.281302</v>
+        <v>3333132251.464453</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1360269697378854</v>
+        <v>0.1652251438849908</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0232247996299246</v>
+        <v>0.02517062907039371</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>135</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1730422263.289636</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2910763932.142441</v>
+        <v>2582319927.168271</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1556413262059717</v>
+        <v>0.2213556873181725</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05227262627352191</v>
+        <v>0.05657932671473184</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>176</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1455382043.328326</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_433.xlsx
+++ b/output/fit_clients/fit_round_433.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1712810233.507638</v>
+        <v>2049142832.242721</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07065848567149884</v>
+        <v>0.1115733669977566</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04015132677319438</v>
+        <v>0.03594423764407181</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2173532738.14074</v>
+        <v>2583376873.898225</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1628128893146948</v>
+        <v>0.1722149949869375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03849606108610099</v>
+        <v>0.03109688059345128</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3828087784.963402</v>
+        <v>5183874972.958951</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1292387694007788</v>
+        <v>0.1053323711585271</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0357519202487112</v>
+        <v>0.03555794002501148</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3814458079.025172</v>
+        <v>3788478761.063915</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06898364404424392</v>
+        <v>0.1011866026775997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04935439222647776</v>
+        <v>0.03795609922165347</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2563708030.141721</v>
+        <v>2441842763.188486</v>
       </c>
       <c r="F6" t="n">
-        <v>0.090017637971228</v>
+        <v>0.1284332944607706</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04189714467402644</v>
+        <v>0.05237235524673214</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2111744845.176851</v>
+        <v>2897138729.784187</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06999876832215696</v>
+        <v>0.06197671871586664</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04210961355310789</v>
+        <v>0.04013150040285782</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3011786320.671714</v>
+        <v>3039651682.745442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1931853164846385</v>
+        <v>0.200399023013178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02029193760573918</v>
+        <v>0.02617686116012952</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2043277048.699971</v>
+        <v>1499962290.127718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1804268216024837</v>
+        <v>0.1573385778544225</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0250170170594778</v>
+        <v>0.02432180195407675</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5547938229.840873</v>
+        <v>5861311102.202593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1562886628714528</v>
+        <v>0.148551361511348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05066932991479512</v>
+        <v>0.0333591914767837</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3616853459.302554</v>
+        <v>3611250623.213164</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1664230998069838</v>
+        <v>0.1874540682003586</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03448039998254571</v>
+        <v>0.03635644651009623</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2631282806.24992</v>
+        <v>2288255536.839217</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1328266784467332</v>
+        <v>0.1929090683740413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03462943185862739</v>
+        <v>0.03585786354500919</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4203241711.194437</v>
+        <v>5143354688.200897</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1012614299364949</v>
+        <v>0.1001579649191617</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02254313945556894</v>
+        <v>0.02993077570592653</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3795042855.607306</v>
+        <v>3111639405.467806</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1182505476245033</v>
+        <v>0.1192015725867051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03168144040295282</v>
+        <v>0.04075004597325791</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1315456579.632242</v>
+        <v>1239679346.381289</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06884013350415109</v>
+        <v>0.07502189858468483</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03293216995846324</v>
+        <v>0.03688345695332381</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2170679756.629916</v>
+        <v>2449049922.322166</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08669239803650144</v>
+        <v>0.07811992014096837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05189525526601384</v>
+        <v>0.03938273042183257</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4245840019.136123</v>
+        <v>3580190631.193535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1069634207466794</v>
+        <v>0.1739314155996179</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03857009411794611</v>
+        <v>0.04420985879347496</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3255446492.677344</v>
+        <v>3438357974.013199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.177834759184122</v>
+        <v>0.1492685938681971</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03040863463928797</v>
+        <v>0.02775162292563095</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1208609952.87418</v>
+        <v>1260697141.064702</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1522891284393515</v>
+        <v>0.1247941696063665</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02046258541053543</v>
+        <v>0.01802146272314514</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1872780960.64306</v>
+        <v>2502119076.114551</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09979047303911512</v>
+        <v>0.1056142491642968</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02962981094441407</v>
+        <v>0.01984694054414235</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2557204303.310448</v>
+        <v>2364987234.698741</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06762313365826293</v>
+        <v>0.07846613800138678</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04438573404940068</v>
+        <v>0.04510353715494916</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3203022521.318208</v>
+        <v>2609344586.067905</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1239412895683027</v>
+        <v>0.1111745589153989</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05234724924961192</v>
+        <v>0.04120919798256657</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1272269641.146164</v>
+        <v>983009218.2182634</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1399768131383225</v>
+        <v>0.1396130142462578</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04410054236186609</v>
+        <v>0.03885379814211853</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4089569743.543452</v>
+        <v>3529671495.88215</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1136185099616242</v>
+        <v>0.1007830022298044</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02718404774462858</v>
+        <v>0.02306776376824879</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1360002288.32141</v>
+        <v>1357980299.174597</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0854705319177388</v>
+        <v>0.08992093604653402</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0219163980373768</v>
+        <v>0.02823307809122472</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1146976845.985723</v>
+        <v>984447725.0408967</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08783405391438967</v>
+        <v>0.1085751243975988</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0345307749965152</v>
+        <v>0.0254794670335389</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3164753314.828819</v>
+        <v>3735143796.831798</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1222963254805391</v>
+        <v>0.1119857889745283</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02199088536134659</v>
+        <v>0.01689861379044132</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3559489255.279316</v>
+        <v>3610016691.349391</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09393123473353727</v>
+        <v>0.138740963023118</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0360922503678001</v>
+        <v>0.03922026118639829</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5209401729.769245</v>
+        <v>4589582870.78072</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1356458780619009</v>
+        <v>0.09346227652560041</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03282050589992808</v>
+        <v>0.03968215717043169</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2343263248.038631</v>
+        <v>2355368906.015768</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1327074288151573</v>
+        <v>0.08807514658385356</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02789993552408274</v>
+        <v>0.02983807448837952</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1016437077.690125</v>
+        <v>1015167810.85328</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06782800588232557</v>
+        <v>0.1048267603080126</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03643591796215331</v>
+        <v>0.03827692536848191</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1393378702.823066</v>
+        <v>1670937659.726178</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1102370191424357</v>
+        <v>0.1124124413638871</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02769082553384711</v>
+        <v>0.03174984887814607</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1991305555.837152</v>
+        <v>2515578438.885635</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1746049985848405</v>
+        <v>0.2008187598940432</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04653348203201438</v>
+        <v>0.04474833419259865</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>967644138.5483922</v>
+        <v>1440998084.049695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1058368367476349</v>
+        <v>0.1096098588330422</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01879620399842568</v>
+        <v>0.02254715684349349</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>889737690.8447257</v>
+        <v>1107548196.726357</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09308964046550014</v>
+        <v>0.08565937691211725</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03762820598077836</v>
+        <v>0.03044085970271976</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2850142744.886022</v>
+        <v>2749427585.781803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.127054100411882</v>
+        <v>0.1751453076890974</v>
       </c>
       <c r="G36" t="n">
-        <v>0.022716752923203</v>
+        <v>0.02451535793281976</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2024114852.255991</v>
+        <v>2085965795.593687</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08070384002339752</v>
+        <v>0.09312027097292409</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03172643955067207</v>
+        <v>0.04089233288456485</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1715779696.112195</v>
+        <v>1413984000.902446</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1174465889213278</v>
+        <v>0.0947182640069664</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03251388637046385</v>
+        <v>0.03807928185432682</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2218342572.758302</v>
+        <v>1379356129.277624</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1404439738612577</v>
+        <v>0.149474741731951</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03186985357324502</v>
+        <v>0.03157283198758706</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1271137386.079075</v>
+        <v>1386465462.379335</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1259503993556941</v>
+        <v>0.09982427417713713</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04721494508556622</v>
+        <v>0.05310145714403538</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2100033547.382147</v>
+        <v>2836545511.980136</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1038741899166754</v>
+        <v>0.1088559216744526</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04579380272422131</v>
+        <v>0.03639607639970139</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3620406169.975996</v>
+        <v>2823345148.876921</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08104869157124238</v>
+        <v>0.08434786912692251</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03591876059629963</v>
+        <v>0.04621511249488123</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2599349600.059536</v>
+        <v>2424959935.232284</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1353330372917998</v>
+        <v>0.1285511514760191</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02570903497143025</v>
+        <v>0.0254417067425635</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2065927939.720553</v>
+        <v>1954296614.98471</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1020982798091394</v>
+        <v>0.09900358296618833</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03306935641008892</v>
+        <v>0.025855900219003</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2330034787.574661</v>
+        <v>1751785952.339352</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1324355009193113</v>
+        <v>0.1425279907933235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03722973306146694</v>
+        <v>0.05626656705089942</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5093220443.532699</v>
+        <v>4173343598.867759</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1387000885003318</v>
+        <v>0.1669205522162054</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05375403333782466</v>
+        <v>0.04019512645477748</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4286470624.473577</v>
+        <v>3678193880.598603</v>
       </c>
       <c r="F47" t="n">
-        <v>0.199411245193277</v>
+        <v>0.1287086688422508</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05779651047968458</v>
+        <v>0.04729478316314634</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4203861512.269967</v>
+        <v>3779236403.994339</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0862505424061645</v>
+        <v>0.07746209906947678</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02953320883262072</v>
+        <v>0.03468749132936665</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1822493615.541435</v>
+        <v>1982285070.560614</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1643151040635508</v>
+        <v>0.1204770639968136</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03843429232983029</v>
+        <v>0.04032304462169305</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3816555729.174014</v>
+        <v>3793848698.321554</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1568537470450501</v>
+        <v>0.1377805737266058</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03420154488560854</v>
+        <v>0.03797149418519941</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1484843768.793476</v>
+        <v>1144462343.396388</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1518265401235064</v>
+        <v>0.1958864176858342</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03737268915449399</v>
+        <v>0.03806398095062323</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4264541405.835258</v>
+        <v>4633278458.006767</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1046813720068287</v>
+        <v>0.1347306294088194</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05715270665584755</v>
+        <v>0.04651097100797243</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2989510084.96794</v>
+        <v>2405389276.116092</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1666812547967303</v>
+        <v>0.1918472381925166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0292695832278386</v>
+        <v>0.03163441178432418</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3524894534.772187</v>
+        <v>3656331440.244111</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1102855361895226</v>
+        <v>0.1398515557572359</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04448534972949608</v>
+        <v>0.05293803193401756</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3963633341.759875</v>
+        <v>4298378534.816025</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1933242954113782</v>
+        <v>0.1859002737196472</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03098160401605856</v>
+        <v>0.0301878340571283</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1516445699.698101</v>
+        <v>1476963402.573139</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1600740670974743</v>
+        <v>0.1434679537177499</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04622448046465963</v>
+        <v>0.05161631490116536</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3685485172.443776</v>
+        <v>2983413069.045617</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1667570710929024</v>
+        <v>0.1693594431589034</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02078020229162375</v>
+        <v>0.01695249762918507</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1654303872.272944</v>
+        <v>1205399976.154516</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1872505122627783</v>
+        <v>0.1752682177471373</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03081531796184476</v>
+        <v>0.0278845494502309</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3596554502.204728</v>
+        <v>4527356699.504532</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1017836477599317</v>
+        <v>0.08548581426900527</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03497007691545943</v>
+        <v>0.03897594645345575</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3694357883.782035</v>
+        <v>2827697866.182372</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1561130530446441</v>
+        <v>0.1872308790453723</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02379632314355354</v>
+        <v>0.02792586454724739</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2914579723.073523</v>
+        <v>2599827479.299225</v>
       </c>
       <c r="F61" t="n">
-        <v>0.162109220696791</v>
+        <v>0.1088167199890012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0226826953740957</v>
+        <v>0.03302530905819476</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1597857428.796649</v>
+        <v>1319070974.203681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.145623825377292</v>
+        <v>0.1670239491633784</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04145729865904162</v>
+        <v>0.03106026655321887</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4833325940.044217</v>
+        <v>4670420420.752526</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07686381120849659</v>
+        <v>0.1031980606498126</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04769927864658036</v>
+        <v>0.04101186991622431</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3767937381.729362</v>
+        <v>4264595720.494098</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1685037226767086</v>
+        <v>0.1853222103329061</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03510390348432433</v>
+        <v>0.02308031451223694</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5639697325.422349</v>
+        <v>5616643909.746639</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1651123989779029</v>
+        <v>0.115910821661421</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02051276165323139</v>
+        <v>0.02853583080533035</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4357826862.553139</v>
+        <v>3852716612.358772</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1429394137847915</v>
+        <v>0.1226551740742288</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04763660434301952</v>
+        <v>0.03831133322640786</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2526574684.67274</v>
+        <v>3123555658.284328</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07096778258849777</v>
+        <v>0.07636070904492044</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03260708281555116</v>
+        <v>0.03704230933517135</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4893847143.860151</v>
+        <v>4633736703.723022</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1477193782742923</v>
+        <v>0.1196578543802222</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04857971539867001</v>
+        <v>0.04794378420718345</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2337653288.22334</v>
+        <v>2303399084.390961</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1350164232056872</v>
+        <v>0.123298238204829</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05485153421907448</v>
+        <v>0.05122495062178319</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2295632436.718637</v>
+        <v>3254140810.630156</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0930285713388634</v>
+        <v>0.09823675879117368</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03688689535210157</v>
+        <v>0.04621064434036829</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4593545887.939728</v>
+        <v>4572860097.913239</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1297891177041577</v>
+        <v>0.1719900925928488</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03136314488410834</v>
+        <v>0.02333809338538611</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1785363517.247586</v>
+        <v>1954094257.7593</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1066806577423032</v>
+        <v>0.07705326219036447</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03894519800752008</v>
+        <v>0.04329248195169573</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3263907587.035647</v>
+        <v>3404571222.241911</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09432588691262796</v>
+        <v>0.07938580384229907</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04250936107419499</v>
+        <v>0.04031191767933825</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2670542376.839418</v>
+        <v>3227272445.062201</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1330892665278859</v>
+        <v>0.1173563332462165</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02720586978569288</v>
+        <v>0.03480090683184665</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2435405142.912432</v>
+        <v>1678556839.117977</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1676033044351281</v>
+        <v>0.145580273692934</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03219613606965716</v>
+        <v>0.03254517549095193</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3982109194.103679</v>
+        <v>3773663412.650683</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1026700339024079</v>
+        <v>0.09186828589424226</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03392354055597111</v>
+        <v>0.03042364546726994</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2112670710.075056</v>
+        <v>2201480594.91537</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1587340996019061</v>
+        <v>0.1399410434867195</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02175784941540284</v>
+        <v>0.02048020876618977</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3920129327.859976</v>
+        <v>3426122841.033938</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1276796665368846</v>
+        <v>0.08523602618455783</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04903997806223084</v>
+        <v>0.05133919803681867</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1258715449.753277</v>
+        <v>1749804910.679781</v>
       </c>
       <c r="F79" t="n">
-        <v>0.129207079454946</v>
+        <v>0.1700088381258997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02556001777361516</v>
+        <v>0.02470591934563587</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4551926544.836739</v>
+        <v>4638422364.026205</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09535099288788694</v>
+        <v>0.09841594227626556</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02708028431569349</v>
+        <v>0.02726291051105759</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3563665409.77827</v>
+        <v>4193638650.57069</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1051100885580774</v>
+        <v>0.1095902851485221</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02597006898812855</v>
+        <v>0.03075930558663723</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5177221808.883163</v>
+        <v>3649251506.854392</v>
       </c>
       <c r="F82" t="n">
-        <v>0.181014062465313</v>
+        <v>0.1651054472711547</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02218628337822018</v>
+        <v>0.02542737560916096</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2132960139.234166</v>
+        <v>1696691800.268144</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1325769340035672</v>
+        <v>0.1480251397534227</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03785700381806324</v>
+        <v>0.03777998158877303</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1923039629.567545</v>
+        <v>2055068017.817327</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08539994662723595</v>
+        <v>0.07946994805588098</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05032753857685222</v>
+        <v>0.03676281327450281</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3221593031.452771</v>
+        <v>3585992253.033527</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1669906689164358</v>
+        <v>0.1122749701373422</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04806151432596891</v>
+        <v>0.04994444651704885</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2211723627.027424</v>
+        <v>1789592379.401627</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1202628634908538</v>
+        <v>0.1622781285769309</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02142439041081045</v>
+        <v>0.0259249313474898</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1279680983.64082</v>
+        <v>991936147.3978512</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1708085403884437</v>
+        <v>0.1191271363902293</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03299327647625153</v>
+        <v>0.04377909466788529</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3541940614.720057</v>
+        <v>3108637946.775594</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1590175864306962</v>
+        <v>0.1124424993127178</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03980030226133285</v>
+        <v>0.03623115950153692</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3101106508.237677</v>
+        <v>3178774398.408382</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1085917214980989</v>
+        <v>0.1378824432538644</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03593415211611201</v>
+        <v>0.0307235850420093</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1797063044.374372</v>
+        <v>2116824538.630875</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09221093488728413</v>
+        <v>0.1223167681740536</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04120951301699249</v>
+        <v>0.03510560347540859</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1959315572.880226</v>
+        <v>1587280969.858177</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1801441422581026</v>
+        <v>0.1704395638274497</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04244452165053843</v>
+        <v>0.04237861115628459</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2152013488.234003</v>
+        <v>2623443620.51492</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09688861125465471</v>
+        <v>0.09674159826301601</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02954123452774531</v>
+        <v>0.03837510898804337</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3395393024.135857</v>
+        <v>4259507842.448273</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1219787152458791</v>
+        <v>0.1411287779524072</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05384937661876528</v>
+        <v>0.03735672773045615</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2140728408.843703</v>
+        <v>1978722526.504495</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1153363130711117</v>
+        <v>0.1474650952471569</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03494176121712128</v>
+        <v>0.0315141451257747</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2419343944.671022</v>
+        <v>2517289989.302962</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1150175744920678</v>
+        <v>0.1109452110030195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05195082992851564</v>
+        <v>0.03905008470142005</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2394384439.191078</v>
+        <v>1648410721.270946</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08777957653196641</v>
+        <v>0.1082497624303341</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0366177720708931</v>
+        <v>0.0417347967591964</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4490579289.577797</v>
+        <v>5009444299.716157</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1283680661025575</v>
+        <v>0.1123115208183962</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02461091079318143</v>
+        <v>0.02566347937701138</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3764104372.746495</v>
+        <v>2741313997.40512</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1185032966140695</v>
+        <v>0.0961903275282719</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02413031256836739</v>
+        <v>0.02505273571487494</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2083447325.003981</v>
+        <v>2455106724.395993</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1366851407453882</v>
+        <v>0.1001132931189838</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03390802219134423</v>
+        <v>0.03328262939032419</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3333132251.464453</v>
+        <v>4127865042.575889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1652251438849908</v>
+        <v>0.1591457971617457</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02517062907039371</v>
+        <v>0.02516726895275342</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2582319927.168271</v>
+        <v>3222859227.950223</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2213556873181725</v>
+        <v>0.1630823036744987</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05657932671473184</v>
+        <v>0.04489762392603776</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_433.xlsx
+++ b/output/fit_clients/fit_round_433.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2049142832.242721</v>
+        <v>2131684073.91963</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1115733669977566</v>
+        <v>0.09283064595433928</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03594423764407181</v>
+        <v>0.0382121521974568</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2583376873.898225</v>
+        <v>1817053680.997717</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1722149949869375</v>
+        <v>0.1202740105037883</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03109688059345128</v>
+        <v>0.03968204499844378</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5183874972.958951</v>
+        <v>3684580636.569814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1053323711585271</v>
+        <v>0.102631179153549</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03555794002501148</v>
+        <v>0.02310106305707426</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>219</v>
+      </c>
+      <c r="J4" t="n">
+        <v>433</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3788478761.063915</v>
+        <v>2686239991.706749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1011866026775997</v>
+        <v>0.09419378540813995</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03795609922165347</v>
+        <v>0.04435813996877012</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>180</v>
+      </c>
+      <c r="J5" t="n">
+        <v>432</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.80736669623559</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2441842763.188486</v>
+        <v>2068652292.053574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1284332944607706</v>
+        <v>0.09064416777051534</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05237235524673214</v>
+        <v>0.04835838925235431</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2897138729.784187</v>
+        <v>2297410467.765027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06197671871586664</v>
+        <v>0.08140743828898812</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04013150040285782</v>
+        <v>0.03718258243839767</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3039651682.745442</v>
+        <v>3249186847.865814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.200399023013178</v>
+        <v>0.2152673498892244</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02617686116012952</v>
+        <v>0.02046829687895749</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>117</v>
+      </c>
+      <c r="J8" t="n">
+        <v>433</v>
+      </c>
+      <c r="K8" t="n">
+        <v>53.65248525590452</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1499962290.127718</v>
+        <v>1992255866.615124</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1573385778544225</v>
+        <v>0.1639935886531574</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02432180195407675</v>
+        <v>0.03606760793134334</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5861311102.202593</v>
+        <v>4289374452.748637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.148551361511348</v>
+        <v>0.1616850126621586</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0333591914767837</v>
+        <v>0.04627294709115001</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>341</v>
+      </c>
+      <c r="J10" t="n">
+        <v>433</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3611250623.213164</v>
+        <v>4029989076.367219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1874540682003586</v>
+        <v>0.184174453622072</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03635644651009623</v>
+        <v>0.03111073307306638</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>178</v>
+      </c>
+      <c r="J11" t="n">
+        <v>433</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.39647256786847</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2288255536.839217</v>
+        <v>2020708597.097991</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1929090683740413</v>
+        <v>0.159803676903585</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03585786354500919</v>
+        <v>0.03672018057627083</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5143354688.200897</v>
+        <v>3392436496.919281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1001579649191617</v>
+        <v>0.07173785228292884</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02993077570592653</v>
+        <v>0.02047080936703108</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>226</v>
+      </c>
+      <c r="J13" t="n">
+        <v>432</v>
+      </c>
+      <c r="K13" t="n">
+        <v>37.39644164668712</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3111639405.467806</v>
+        <v>2767568213.257286</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1192015725867051</v>
+        <v>0.1716967004871627</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04075004597325791</v>
+        <v>0.03372648602208261</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1239679346.381289</v>
+        <v>1440412948.325766</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07502189858468483</v>
+        <v>0.09922310374848815</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03688345695332381</v>
+        <v>0.04341819788141286</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2449049922.322166</v>
+        <v>2443503523.192394</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07811992014096837</v>
+        <v>0.1007675003394747</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03938273042183257</v>
+        <v>0.03824845843082384</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3580190631.193535</v>
+        <v>5194298675.756374</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1739314155996179</v>
+        <v>0.1753915950215262</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04420985879347496</v>
+        <v>0.0380974517169379</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>211</v>
+      </c>
+      <c r="J17" t="n">
+        <v>432</v>
+      </c>
+      <c r="K17" t="n">
+        <v>38.34505130033588</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3438357974.013199</v>
+        <v>3596319436.948448</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1492685938681971</v>
+        <v>0.1294116194514003</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02775162292563095</v>
+        <v>0.03182152364960519</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1260697141.064702</v>
+        <v>1006494050.915272</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1247941696063665</v>
+        <v>0.1712076347772731</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01802146272314514</v>
+        <v>0.01834806229448598</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2502119076.114551</v>
+        <v>2472728915.662163</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1056142491642968</v>
+        <v>0.1427177618052244</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01984694054414235</v>
+        <v>0.02057743042728446</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2364987234.698741</v>
+        <v>2334430163.748565</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07846613800138678</v>
+        <v>0.09025879574384507</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04510353715494916</v>
+        <v>0.0341091216765827</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2609344586.067905</v>
+        <v>3716397786.504772</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1111745589153989</v>
+        <v>0.1054121446146487</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04120919798256657</v>
+        <v>0.03539993136155133</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>433</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>983009218.2182634</v>
+        <v>1080217715.680126</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1396130142462578</v>
+        <v>0.1484262921749497</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03885379814211853</v>
+        <v>0.03337363634699393</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3529671495.88215</v>
+        <v>3490424126.906936</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1007830022298044</v>
+        <v>0.1061599798384963</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02306776376824879</v>
+        <v>0.03601079897674163</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1357980299.174597</v>
+        <v>1377323638.704295</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08992093604653402</v>
+        <v>0.1222816979575317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02823307809122472</v>
+        <v>0.02678899814908075</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>984447725.0408967</v>
+        <v>1005355635.876907</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1085751243975988</v>
+        <v>0.09515400979435081</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0254794670335389</v>
+        <v>0.03532303795923691</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3735143796.831798</v>
+        <v>4197718813.142253</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1119857889745283</v>
+        <v>0.1263830177065754</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01689861379044132</v>
+        <v>0.02202209629555715</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>185</v>
+      </c>
+      <c r="J27" t="n">
+        <v>433</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3610016691.349391</v>
+        <v>3047953951.957414</v>
       </c>
       <c r="F28" t="n">
-        <v>0.138740963023118</v>
+        <v>0.1221834912908936</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03922026118639829</v>
+        <v>0.04711286503579609</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>106</v>
+      </c>
+      <c r="J28" t="n">
+        <v>431</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4589582870.78072</v>
+        <v>4459974874.834042</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09346227652560041</v>
+        <v>0.130168955102353</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03968215717043169</v>
+        <v>0.04176789838097782</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>357</v>
+      </c>
+      <c r="J29" t="n">
+        <v>433</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2355368906.015768</v>
+        <v>1467635340.420862</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08807514658385356</v>
+        <v>0.1315482503765818</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02983807448837952</v>
+        <v>0.03530986780748706</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1015167810.85328</v>
+        <v>1114029572.818068</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1048267603080126</v>
+        <v>0.1038863715815532</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03827692536848191</v>
+        <v>0.03653525359170588</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1670937659.726178</v>
+        <v>1836890085.083304</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1124124413638871</v>
+        <v>0.08504608761301011</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03174984887814607</v>
+        <v>0.02606196520524459</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2515578438.885635</v>
+        <v>2020191684.357717</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2008187598940432</v>
+        <v>0.1591279715617935</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04474833419259865</v>
+        <v>0.03909331538436094</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1440998084.049695</v>
+        <v>1316825528.442719</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1096098588330422</v>
+        <v>0.1039474316749208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02254715684349349</v>
+        <v>0.01993776749648672</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1107548196.726357</v>
+        <v>974664069.1428025</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08565937691211725</v>
+        <v>0.110535700300713</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03044085970271976</v>
+        <v>0.02846064235868517</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2749427585.781803</v>
+        <v>2848376268.362139</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1751453076890974</v>
+        <v>0.1594642988648891</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02451535793281976</v>
+        <v>0.02368124959422876</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2085965795.593687</v>
+        <v>2580787680.15849</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09312027097292409</v>
+        <v>0.09426917538173328</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04089233288456485</v>
+        <v>0.03868464921785848</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1413984000.902446</v>
+        <v>1761330042.846819</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0947182640069664</v>
+        <v>0.09311120899113245</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03807928185432682</v>
+        <v>0.03619746279967018</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379356129.277624</v>
+        <v>1649294693.963369</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149474741731951</v>
+        <v>0.1318748523140467</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03157283198758706</v>
+        <v>0.02812781487161649</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1386465462.379335</v>
+        <v>1411588134.678412</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09982427417713713</v>
+        <v>0.141958381835294</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05310145714403538</v>
+        <v>0.05726066882891057</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2836545511.980136</v>
+        <v>2394701908.247301</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1088559216744526</v>
+        <v>0.1424726514713156</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03639607639970139</v>
+        <v>0.02899898093641765</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2823345148.876921</v>
+        <v>4272953343.570319</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08434786912692251</v>
+        <v>0.1217446446847767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04621511249488123</v>
+        <v>0.04659402780931613</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>186</v>
+      </c>
+      <c r="J42" t="n">
+        <v>433</v>
+      </c>
+      <c r="K42" t="n">
+        <v>49.64170842830153</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2424959935.232284</v>
+        <v>1901748479.658196</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1285511514760191</v>
+        <v>0.1565955767229887</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0254417067425635</v>
+        <v>0.02080952943412364</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1954296614.98471</v>
+        <v>1580436605.74686</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09900358296618833</v>
+        <v>0.06548073926593838</v>
       </c>
       <c r="G44" t="n">
-        <v>0.025855900219003</v>
+        <v>0.03559292095678597</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1751785952.339352</v>
+        <v>1899599430.476698</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1425279907933235</v>
+        <v>0.1419013441079479</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05626656705089942</v>
+        <v>0.04713093024308444</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4173343598.867759</v>
+        <v>5304293890.030895</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1669205522162054</v>
+        <v>0.1213370837932153</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04019512645477748</v>
+        <v>0.04650951326226376</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>258</v>
+      </c>
+      <c r="J46" t="n">
+        <v>432</v>
+      </c>
+      <c r="K46" t="n">
+        <v>37.94321363747024</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3678193880.598603</v>
+        <v>3790677251.106821</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1287086688422508</v>
+        <v>0.1929160858619262</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04729478316314634</v>
+        <v>0.05366735129299779</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>194</v>
+      </c>
+      <c r="J47" t="n">
+        <v>433</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3779236403.994339</v>
+        <v>3619936553.421219</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07746209906947678</v>
+        <v>0.08784698711552527</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03468749132936665</v>
+        <v>0.03179606349955406</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>221</v>
+      </c>
+      <c r="J48" t="n">
+        <v>431</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1982285070.560614</v>
+        <v>1630694485.669882</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1204770639968136</v>
+        <v>0.1921607872706816</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04032304462169305</v>
+        <v>0.03980313149227797</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3793848698.321554</v>
+        <v>2914476965.514868</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1377805737266058</v>
+        <v>0.1728585851371516</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03797149418519941</v>
+        <v>0.05307809996934883</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>152</v>
+      </c>
+      <c r="J50" t="n">
+        <v>432</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.92280675041692</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1144462343.396388</v>
+        <v>1310321705.085206</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1958864176858342</v>
+        <v>0.1390036793755841</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03806398095062323</v>
+        <v>0.03349192555709337</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4633278458.006767</v>
+        <v>3391058973.937733</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1347306294088194</v>
+        <v>0.09388671752158911</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04651097100797243</v>
+        <v>0.04526835073684464</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>248</v>
+      </c>
+      <c r="J52" t="n">
+        <v>431</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2405389276.116092</v>
+        <v>3755026068.17611</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1918472381925166</v>
+        <v>0.1865025522411407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03163441178432418</v>
+        <v>0.03160279669245766</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>433</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3656331440.244111</v>
+        <v>4301450451.465942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1398515557572359</v>
+        <v>0.1125074001903227</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05293803193401756</v>
+        <v>0.03346421124075424</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>230</v>
+      </c>
+      <c r="J54" t="n">
+        <v>433</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4298378534.816025</v>
+        <v>4932663183.37541</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1859002737196472</v>
+        <v>0.2155731685417626</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0301878340571283</v>
+        <v>0.02133215062116292</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>215</v>
+      </c>
+      <c r="J55" t="n">
+        <v>432</v>
+      </c>
+      <c r="K55" t="n">
+        <v>38.62405156528198</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1476963402.573139</v>
+        <v>1139139651.983494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1434679537177499</v>
+        <v>0.1276833569321023</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05161631490116536</v>
+        <v>0.04642861086581672</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2983413069.045617</v>
+        <v>3504346396.444235</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1693594431589034</v>
+        <v>0.1451172785157227</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01695249762918507</v>
+        <v>0.01734770981867681</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>189</v>
+      </c>
+      <c r="J57" t="n">
+        <v>432</v>
+      </c>
+      <c r="K57" t="n">
+        <v>40.38477684361412</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1205399976.154516</v>
+        <v>1681061829.859355</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1752682177471373</v>
+        <v>0.1861872887389061</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0278845494502309</v>
+        <v>0.03055646749614476</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4527356699.504532</v>
+        <v>3357760776.90051</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08548581426900527</v>
+        <v>0.114579442222568</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03897594645345575</v>
+        <v>0.03600064090336221</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>212</v>
+      </c>
+      <c r="J59" t="n">
+        <v>432</v>
+      </c>
+      <c r="K59" t="n">
+        <v>40.48921909356909</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2827697866.182372</v>
+        <v>3023601076.205442</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1872308790453723</v>
+        <v>0.1493303841101113</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02792586454724739</v>
+        <v>0.02241439445841013</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>83</v>
+      </c>
+      <c r="J60" t="n">
+        <v>433</v>
+      </c>
+      <c r="K60" t="n">
+        <v>54.53845467778746</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2599827479.299225</v>
+        <v>3125170889.807561</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1088167199890012</v>
+        <v>0.1203534908789064</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03302530905819476</v>
+        <v>0.02616295577082197</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1319070974.203681</v>
+        <v>2082982041.373813</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1670239491633784</v>
+        <v>0.1823425386666115</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03106026655321887</v>
+        <v>0.03307782937913317</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4670420420.752526</v>
+        <v>3869037875.336111</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031980606498126</v>
+        <v>0.06747219920015703</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04101186991622431</v>
+        <v>0.04603827166114666</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>216</v>
+      </c>
+      <c r="J63" t="n">
+        <v>432</v>
+      </c>
+      <c r="K63" t="n">
+        <v>37.6358835067257</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4264595720.494098</v>
+        <v>3971104044.596247</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1853222103329061</v>
+        <v>0.151434434713408</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02308031451223694</v>
+        <v>0.03563045737733987</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>217</v>
+      </c>
+      <c r="J64" t="n">
+        <v>432</v>
+      </c>
+      <c r="K64" t="n">
+        <v>36.3405114055114</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5616643909.746639</v>
+        <v>5877341131.121675</v>
       </c>
       <c r="F65" t="n">
-        <v>0.115910821661421</v>
+        <v>0.1673278944294363</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02853583080533035</v>
+        <v>0.02164571540264002</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>314</v>
+      </c>
+      <c r="J65" t="n">
+        <v>432</v>
+      </c>
+      <c r="K65" t="n">
+        <v>38.48295857653043</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3852716612.358772</v>
+        <v>4487549279.947772</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1226551740742288</v>
+        <v>0.1135854948672291</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03831133322640786</v>
+        <v>0.04999703967613692</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>213</v>
+      </c>
+      <c r="J66" t="n">
+        <v>433</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3123555658.284328</v>
+        <v>2313984690.787966</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07636070904492044</v>
+        <v>0.07740553815072247</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03704230933517135</v>
+        <v>0.04481999124785889</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4633736703.723022</v>
+        <v>4394491563.787302</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1196578543802222</v>
+        <v>0.1599422767066784</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04794378420718345</v>
+        <v>0.03581331382313253</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>236</v>
+      </c>
+      <c r="J68" t="n">
+        <v>433</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2303399084.390961</v>
+        <v>2242415985.791023</v>
       </c>
       <c r="F69" t="n">
-        <v>0.123298238204829</v>
+        <v>0.1302149782614113</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05122495062178319</v>
+        <v>0.04460513431054053</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2905,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3254140810.630156</v>
+        <v>3182786465.73901</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09823675879117368</v>
+        <v>0.08520295885214169</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04621064434036829</v>
+        <v>0.04597628310114264</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>60</v>
+      </c>
+      <c r="J70" t="n">
+        <v>433</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.78117042365209</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4572860097.913239</v>
+        <v>3524456795.594439</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1719900925928488</v>
+        <v>0.1382934401031319</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02333809338538611</v>
+        <v>0.02374892210072949</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>300</v>
+      </c>
+      <c r="J71" t="n">
+        <v>431</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1954094257.7593</v>
+        <v>1582429133.096069</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07705326219036447</v>
+        <v>0.08621874032503855</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04329248195169573</v>
+        <v>0.05025966869048844</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3404571222.241911</v>
+        <v>3478866118.628128</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07938580384229907</v>
+        <v>0.09976931189665565</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04031191767933825</v>
+        <v>0.03550998176764229</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3227272445.062201</v>
+        <v>2722166795.515224</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1173563332462165</v>
+        <v>0.180661314492064</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03480090683184665</v>
+        <v>0.02678711737410949</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="n">
+        <v>32.37561302008719</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1678556839.117977</v>
+        <v>2215211853.344496</v>
       </c>
       <c r="F75" t="n">
-        <v>0.145580273692934</v>
+        <v>0.1375219119951998</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03254517549095193</v>
+        <v>0.02792389740142032</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3773663412.650683</v>
+        <v>5256852827.888515</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09186828589424226</v>
+        <v>0.1016288031284656</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03042364546726994</v>
+        <v>0.0294835767877405</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>206</v>
+      </c>
+      <c r="J76" t="n">
+        <v>433</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2201480594.91537</v>
+        <v>1402410714.089053</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1399410434867195</v>
+        <v>0.1464871029375096</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02048020876618977</v>
+        <v>0.02330050730942507</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3426122841.033938</v>
+        <v>4791698271.699813</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08523602618455783</v>
+        <v>0.1340906102936946</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05133919803681867</v>
+        <v>0.05571993578427416</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>217</v>
+      </c>
+      <c r="J78" t="n">
+        <v>433</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1749804910.679781</v>
+        <v>1872102900.262717</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1700088381258997</v>
+        <v>0.1658579021592235</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02470591934563587</v>
+        <v>0.02924840228263809</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4638422364.026205</v>
+        <v>3391759647.75367</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09841594227626556</v>
+        <v>0.09619469218597737</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02726291051105759</v>
+        <v>0.03022213945496147</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>211</v>
+      </c>
+      <c r="J80" t="n">
+        <v>432</v>
+      </c>
+      <c r="K80" t="n">
+        <v>33.13683230842686</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4193638650.57069</v>
+        <v>5215666493.200092</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095902851485221</v>
+        <v>0.1228571198636344</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03075930558663723</v>
+        <v>0.02568902532209774</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>200</v>
+      </c>
+      <c r="J81" t="n">
+        <v>433</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3649251506.854392</v>
+        <v>5571380641.864538</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1651054472711547</v>
+        <v>0.1595862536120068</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02542737560916096</v>
+        <v>0.02351165373065698</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>292</v>
+      </c>
+      <c r="J82" t="n">
+        <v>432</v>
+      </c>
+      <c r="K82" t="n">
+        <v>38.05006995815869</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1696691800.268144</v>
+        <v>1990194303.82307</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1480251397534227</v>
+        <v>0.1286376760830963</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03777998158877303</v>
+        <v>0.03954063836793631</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2055068017.817327</v>
+        <v>2067147398.504027</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07946994805588098</v>
+        <v>0.09922922407485928</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03676281327450281</v>
+        <v>0.03665333806309769</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3585992253.033527</v>
+        <v>2440183336.501804</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1122749701373422</v>
+        <v>0.1559610443799822</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04994444651704885</v>
+        <v>0.03469358505436904</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1789592379.401627</v>
+        <v>2123406101.925124</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1622781285769309</v>
+        <v>0.1603537931863379</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0259249313474898</v>
+        <v>0.02108031608792665</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>991936147.3978512</v>
+        <v>1191103034.556429</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1191271363902293</v>
+        <v>0.1607764779222634</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04377909466788529</v>
+        <v>0.03037361653119704</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3108637946.775594</v>
+        <v>3241120945.225359</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1124424993127178</v>
+        <v>0.1634400155631512</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03623115950153692</v>
+        <v>0.03057197792181681</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3178774398.408382</v>
+        <v>2865420275.620022</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1378824432538644</v>
+        <v>0.1047408977015402</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0307235850420093</v>
+        <v>0.03550596181105974</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2116824538.630875</v>
+        <v>2070487291.124513</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1223167681740536</v>
+        <v>0.1227291796865575</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03510560347540859</v>
+        <v>0.0528727750842163</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1587280969.858177</v>
+        <v>1270520532.337083</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1704395638274497</v>
+        <v>0.1816136217840067</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04237861115628459</v>
+        <v>0.03780724416329466</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2623443620.51492</v>
+        <v>2407861473.039424</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09674159826301601</v>
+        <v>0.08839983664256677</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03837510898804337</v>
+        <v>0.03027055009852871</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4259507842.448273</v>
+        <v>3142680344.222546</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1411287779524072</v>
+        <v>0.1226220488041248</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03735672773045615</v>
+        <v>0.05455904088457382</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>208</v>
+      </c>
+      <c r="J93" t="n">
+        <v>432</v>
+      </c>
+      <c r="K93" t="n">
+        <v>34.09718844992427</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1978722526.504495</v>
+        <v>2074028786.861438</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1474650952471569</v>
+        <v>0.1631431798805796</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0315141451257747</v>
+        <v>0.03748469742634819</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2517289989.302962</v>
+        <v>2923236414.26411</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1109452110030195</v>
+        <v>0.1019518943981815</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03905008470142005</v>
+        <v>0.04479670791995481</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1648410721.270946</v>
+        <v>1461680882.951988</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1082497624303341</v>
+        <v>0.11985357185835</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0417347967591964</v>
+        <v>0.03875989148625422</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5009444299.716157</v>
+        <v>4052771294.999934</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1123115208183962</v>
+        <v>0.113844211046148</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02566347937701138</v>
+        <v>0.02841988500727467</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>226</v>
+      </c>
+      <c r="J97" t="n">
+        <v>433</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2741313997.40512</v>
+        <v>3324739208.660943</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0961903275282719</v>
+        <v>0.1295880233020779</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02505273571487494</v>
+        <v>0.02399438462682484</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2455106724.395993</v>
+        <v>2440098665.84008</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1001132931189838</v>
+        <v>0.09689397882350466</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03328262939032419</v>
+        <v>0.03008329933290017</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4127865042.575889</v>
+        <v>3791155026.00077</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1591457971617457</v>
+        <v>0.1110169672609885</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02516726895275342</v>
+        <v>0.01805080131426017</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>201</v>
+      </c>
+      <c r="J100" t="n">
+        <v>433</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3222859227.950223</v>
+        <v>2320981011.806852</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1630823036744987</v>
+        <v>0.1670493761011066</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04489762392603776</v>
+        <v>0.05262643992294687</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
